--- a/tobit.xlsx
+++ b/tobit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtol\Google Drive\Papers\Markandya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtol\My Drive\Papers\Markandya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{888976D9-2122-4AC2-A13A-76ACFC86AD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643CE4B-362A-4928-B2B4-13514AF9E4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="0" windowWidth="19872" windowHeight="11976"/>
+    <workbookView xWindow="580" yWindow="160" windowWidth="17900" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="18">
   <si>
     <t>Temperature</t>
   </si>
@@ -79,13 +79,25 @@
   <si>
     <t>\\</t>
   </si>
+  <si>
+    <t>CLAD</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>\multicolumn{9}{3}{Rainfall}</t>
+  </si>
+  <si>
+    <t>\multicolumn{9}{3}{Temperature}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,10 +137,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,51 +456,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="H7:Y18"/>
+    <sheetView tabSelected="1" topLeftCell="O21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -495,37 +508,49 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>1.2063E-3</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>6.7967000000000001E-3</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>7.0172000000000003E-3</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>1.06847E-2</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>3.6687999999999998E-3</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>1.8898000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -535,29 +560,35 @@
       <c r="C3">
         <v>1.2761999999999999E-3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D3">
+        <v>1.4146E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.606E-3</v>
+      </c>
+      <c r="L3" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>1.2761999999999999E-3</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>7.2173000000000003E-3</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>7.0358E-3</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>1.07083E-2</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>3.6754000000000001E-3</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>2.0371999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -568,69 +599,96 @@
         <v>7.2173000000000003E-3</v>
       </c>
       <c r="D4">
+        <v>7.3584000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>7.6652999999999999E-3</v>
+      </c>
+      <c r="F4">
         <v>0.2085542</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.22393070000000001</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.2085542</v>
-      </c>
-      <c r="K4">
-        <v>0.2260704</v>
-      </c>
-      <c r="L4">
-        <v>0.15796299999999999</v>
+      <c r="H4">
+        <v>0.2426488</v>
+      </c>
+      <c r="I4">
+        <v>0.24919949999999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <f>D3</f>
+        <v>1.4146E-3</v>
       </c>
       <c r="N4">
-        <v>0.14136889999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.58336290000000002</v>
+        <f>D4</f>
+        <v>7.3584000000000002E-3</v>
       </c>
       <c r="P4">
-        <v>0.37791190000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <f>D6</f>
+        <v>7.4484E-3</v>
+      </c>
+      <c r="Q4">
+        <f>D7</f>
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="R4">
+        <f>D8</f>
+        <v>4.3702999999999997E-3</v>
+      </c>
+      <c r="T4">
+        <f>D10</f>
+        <v>1.9575E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.2260704</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.23621210000000001</v>
       </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.22393070000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.23621210000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.15796299999999999</v>
+      <c r="H5">
+        <v>0.24431890000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.2471845</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <f>E3</f>
+        <v>1.606E-3</v>
       </c>
       <c r="N5">
-        <v>0.14163039999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.58336290000000002</v>
+        <f>E4</f>
+        <v>7.6652999999999999E-3</v>
       </c>
       <c r="P5">
-        <v>0.37791190000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <f>E6</f>
+        <v>1.6754000000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <f>E7</f>
+        <v>2.2037899999999999E-2</v>
+      </c>
+      <c r="R5">
+        <f>E8</f>
+        <v>7.4241999999999997E-3</v>
+      </c>
+      <c r="T5">
+        <f>E10</f>
+        <v>2.2685000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -641,13 +699,49 @@
         <v>7.0358E-3</v>
       </c>
       <c r="D6">
+        <v>7.4484E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.6754000000000002E-2</v>
+      </c>
+      <c r="F6">
         <v>0.15796299999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.15796299999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0.17916280000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.2023488</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.2085542</v>
+      </c>
+      <c r="O6">
+        <v>0.2260704</v>
+      </c>
+      <c r="P6">
+        <v>0.15796299999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.14136889999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.58336290000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.37791190000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,53 +751,37 @@
       <c r="C7">
         <v>1.07083E-2</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+      <c r="D7">
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.2037899999999999E-2</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0.22393070000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.23621210000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.15796299999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.14163039999999999</v>
+      </c>
+      <c r="S7">
+        <f>G9</f>
+        <v>0.65657399999999999</v>
+      </c>
+      <c r="T7">
+        <f>G10</f>
+        <v>0.42060049999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -714,75 +792,96 @@
         <v>3.6754000000000001E-3</v>
       </c>
       <c r="D8">
+        <v>4.3702999999999997E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.4241999999999997E-3</v>
+      </c>
+      <c r="F8">
         <v>0.14136889999999999</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.14163039999999999</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+      <c r="H8">
+        <v>0.15998319999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.37062519999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <f>H4</f>
+        <v>0.2426488</v>
+      </c>
+      <c r="O8">
+        <f>H5</f>
+        <v>0.24431890000000001</v>
+      </c>
+      <c r="P8">
+        <f>H6</f>
+        <v>0.17916280000000001</v>
+      </c>
+      <c r="R8">
+        <f>H8</f>
+        <v>0.15998319999999999</v>
+      </c>
+      <c r="S8">
+        <f>H9</f>
+        <v>0.43100119999999997</v>
+      </c>
+      <c r="T8">
+        <f>H10</f>
+        <v>0.36845889999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.58336290000000002</v>
       </c>
-      <c r="E9">
-        <v>0.58336290000000002</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.65657399999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.43100119999999997</v>
+      </c>
+      <c r="I9">
+        <v>1.06307</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <f>I4</f>
+        <v>0.24919949999999999</v>
+      </c>
+      <c r="O9">
+        <f>I5</f>
+        <v>0.2471845</v>
+      </c>
+      <c r="P9">
+        <f>I6</f>
+        <v>0.2023488</v>
+      </c>
+      <c r="R9">
+        <f>I8</f>
+        <v>0.37062519999999999</v>
+      </c>
+      <c r="S9">
+        <f>I9</f>
+        <v>1.06307</v>
+      </c>
+      <c r="T9">
+        <f>I10</f>
+        <v>0.5967171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -793,284 +892,202 @@
         <v>2.0371999999999999E-3</v>
       </c>
       <c r="D10">
+        <v>1.9575E-3</v>
+      </c>
+      <c r="E10">
+        <v>2.2685000000000001E-3</v>
+      </c>
+      <c r="F10">
         <v>0.37791190000000002</v>
       </c>
-      <c r="E10">
-        <v>0.37791190000000002</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1">
-        <f>1/I2</f>
-        <v>828.98118212716577</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1">
-        <f>1/J2</f>
-        <v>147.13022496211397</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1">
-        <f>1/L2</f>
-        <v>142.50698284215926</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1">
-        <f>1/M2</f>
-        <v>93.591771411457501</v>
-      </c>
-      <c r="S10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="1">
-        <f>1/N2</f>
-        <v>272.56868730920195</v>
-      </c>
-      <c r="U10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="1">
-        <f>1/P2</f>
-        <v>529.15652449994707</v>
-      </c>
-      <c r="Y10" s="2" t="s">
+      <c r="G10">
+        <v>0.42060049999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.36845889999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.5967171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J10*$D$13</f>
-        <v>-122.2266071084284</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11:R11" si="0">L10*$D$13</f>
-        <v>-21.693168177924164</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P10*$D$13</f>
-        <v>-21.011508315980329</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R10*$D$13</f>
-        <v>-13.799353856907274</v>
-      </c>
-      <c r="S11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T10*$D$13</f>
-        <v>-40.188060443441231</v>
-      </c>
-      <c r="U11" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10*$D$13</f>
-        <v>-78.019873084398967</v>
-      </c>
-      <c r="Y11" s="2" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1">
-        <f>1/I3</f>
-        <v>783.57624196834354</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <f>1/J3</f>
-        <v>138.55596968395383</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1">
-        <f>1/L3</f>
-        <v>142.1302481594133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="1">
-        <f>1/M3</f>
-        <v>93.385504701960159</v>
-      </c>
-      <c r="S12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="1">
-        <f>1/N3</f>
-        <v>272.07922947162211</v>
-      </c>
-      <c r="U12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="1"/>
-      <c r="W12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="1">
-        <f>1/P3</f>
-        <v>490.86982132338505</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D13">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="F13">
         <f>-SQRT(2)/SQRT(92)</f>
         <v>-0.14744195615489716</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1">
-        <f>J12*$D$13</f>
-        <v>-115.53201391231561</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13" si="1">L12*$D$13</f>
-        <v>-20.428963207140782</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" ref="P13" si="2">P12*$D$13</f>
-        <v>-20.955961817404869</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" ref="R13" si="3">R12*$D$13</f>
-        <v>-13.768941489769352</v>
-      </c>
-      <c r="S13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" ref="T13" si="4">T12*$D$13</f>
-        <v>-40.115893822413113</v>
-      </c>
-      <c r="U13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="1">
-        <f t="shared" ref="X13" si="5">X12*$D$13</f>
-        <v>-72.374806673324741</v>
-      </c>
-      <c r="Y13" s="2" t="s">
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <f>1/M2</f>
+        <v>828.98118212716577</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1">
+        <f>1/N2</f>
+        <v>147.13022496211397</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
       <c r="R14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="2" t="s">
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="1">
+        <f>1/P2</f>
+        <v>142.50698284215926</v>
+      </c>
+      <c r="U14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="1">
+        <f>1/Q2</f>
+        <v>93.591771411457501</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="1">
+        <f>1/R2</f>
+        <v>272.56868730920195</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>1/T2</f>
+        <v>529.15652449994707</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1">
-        <f>1/J4</f>
-        <v>4.7949166211948739</v>
-      </c>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="1">
-        <f>1/K4</f>
-        <v>4.4234008521239403</v>
+        <f>N14*$F$13</f>
+        <v>-122.2266071084284</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="1">
-        <f>1/L4</f>
-        <v>6.3305964054873609</v>
+        <f t="shared" ref="P15" si="0">P14*$F$13</f>
+        <v>-21.693168177924164</v>
       </c>
       <c r="Q15" t="s">
         <v>12</v>
@@ -1080,52 +1097,55 @@
         <v>12</v>
       </c>
       <c r="T15" s="1">
-        <f>1/N4</f>
-        <v>7.0736915969495415</v>
+        <f>T14*$F$13</f>
+        <v>-21.011508315980329</v>
       </c>
       <c r="U15" t="s">
         <v>12</v>
       </c>
       <c r="V15" s="1">
-        <f>1/O4</f>
-        <v>1.7141988288936441</v>
+        <f>V14*$F$13</f>
+        <v>-13.799353856907274</v>
       </c>
       <c r="W15" t="s">
         <v>12</v>
       </c>
       <c r="X15" s="1">
-        <f>1/P4</f>
-        <v>2.6461193733248409</v>
-      </c>
-      <c r="Y15" s="2" t="s">
+        <f>X14*$F$13</f>
+        <v>-40.188060443441231</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>AB14*$F$13</f>
+        <v>-78.019873084398967</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" ref="L16" si="6">L15*$D$13</f>
-        <v>-0.7069718862286023</v>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>2</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ref="N16" si="7">N15*$D$13</f>
-        <v>-0.65219487449439273</v>
+        <f>1/M3</f>
+        <v>783.57624196834354</v>
       </c>
       <c r="O16" t="s">
         <v>12</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" ref="P16" si="8">P15*$D$13</f>
-        <v>-0.93339551765221707</v>
+        <f>1/N3</f>
+        <v>138.55596968395383</v>
       </c>
       <c r="Q16" t="s">
         <v>12</v>
@@ -1135,55 +1155,52 @@
         <v>12</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16" si="9">T15*$D$13</f>
-        <v>-1.0429589262906989</v>
+        <f>1/P3</f>
+        <v>142.1302481594133</v>
       </c>
       <c r="U16" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" ref="V16" si="10">V15*$D$13</f>
-        <v>-0.25274482857051273</v>
+        <f>1/Q3</f>
+        <v>93.385504701960159</v>
       </c>
       <c r="W16" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ref="X16" si="11">X15*$D$13</f>
-        <v>-0.39014901662238516</v>
-      </c>
-      <c r="Y16" s="2" t="s">
+        <f>1/R3</f>
+        <v>272.07922947162211</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>1/T3</f>
+        <v>490.86982132338505</v>
+      </c>
+      <c r="AC16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="8:25" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1">
-        <f>1/J5</f>
-        <v>4.4656672801004955</v>
-      </c>
+    <row r="17" spans="12:29" x14ac:dyDescent="0.35">
       <c r="M17" t="s">
         <v>12</v>
       </c>
       <c r="N17" s="1">
-        <f>1/K5</f>
-        <v>4.2334833820960061</v>
+        <f>N16*$F$13</f>
+        <v>-115.53201391231561</v>
       </c>
       <c r="O17" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="1">
-        <f>1/L5</f>
-        <v>6.3305964054873609</v>
+        <f t="shared" ref="P17" si="1">P16*$F$13</f>
+        <v>-20.428963207140782</v>
       </c>
       <c r="Q17" t="s">
         <v>12</v>
@@ -1193,96 +1210,740 @@
         <v>12</v>
       </c>
       <c r="T17" s="1">
+        <f t="shared" ref="T17" si="2">T16*$F$13</f>
+        <v>-20.955961817404869</v>
+      </c>
+      <c r="U17" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17" si="3">V16*$F$13</f>
+        <v>-13.768941489769352</v>
+      </c>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17" si="4">X16*$F$13</f>
+        <v>-40.115893822413113</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" ref="AB17" si="5">AB16*$F$13</f>
+        <v>-72.374806673324741</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3">
+        <f>1/M4</f>
+        <v>706.91361515622793</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3">
+        <f>1/N4</f>
+        <v>135.89910850184822</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3">
+        <f>1/P4</f>
+        <v>134.25702164223188</v>
+      </c>
+      <c r="U18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3">
+        <f>1/Q4</f>
+        <v>78.537320934908266</v>
+      </c>
+      <c r="W18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="3">
+        <f>1/R4</f>
+        <v>228.81724366748278</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>1/T4</f>
+        <v>510.85568326947634</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <f>N18*$F$13</f>
+        <v>-104.2287262511644</v>
+      </c>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <f>P18*$F$13</f>
+        <v>-20.037230397219119</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="1">
+        <f>T18*$F$13</f>
+        <v>-19.795117898461033</v>
+      </c>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="1">
+        <f>V18*$F$13</f>
+        <v>-11.579696229807832</v>
+      </c>
+      <c r="W19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="1">
+        <f>X18*$F$13</f>
+        <v>-33.737262008305414</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>AB18*$F$13</f>
+        <v>-75.321561254098157</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="3">
+        <f>1/M5</f>
+        <v>622.66500622665001</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="3">
         <f>1/N5</f>
+        <v>130.45803817202196</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3">
+        <f>1/P5</f>
+        <v>59.687238868329949</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="3">
+        <f>1/Q5</f>
+        <v>45.376374336937729</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="3">
+        <f>1/R5</f>
+        <v>134.6946472347189</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>1/T5</f>
+        <v>440.81992506061272</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1">
+        <f>N20*$F$13</f>
+        <v>-91.806946547258505</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1">
+        <f>P20*$F$13</f>
+        <v>-19.234988344213161</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="1">
+        <f>T20*$F$13</f>
+        <v>-8.8004032562311778</v>
+      </c>
+      <c r="U21" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="1">
+        <f>V20*$F$13</f>
+        <v>-6.6903813954549731</v>
+      </c>
+      <c r="W21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="1">
+        <f>X20*$F$13</f>
+        <v>-19.859642271880766</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>AB20*$F$13</f>
+        <v>-64.995352062991913</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1">
+        <f>1/N6</f>
+        <v>4.7949166211948739</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="1">
+        <f>1/O6</f>
+        <v>4.4234008521239403</v>
+      </c>
+      <c r="S23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="1">
+        <f>1/P6</f>
+        <v>6.3305964054873609</v>
+      </c>
+      <c r="U23" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" s="1">
+        <f>1/R6</f>
+        <v>7.0736915969495415</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>1/S6</f>
+        <v>1.7141988288936441</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="1">
+        <f>1/T6</f>
+        <v>2.6461193733248409</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ref="P24" si="6">P23*$F$13</f>
+        <v>-0.7069718862286023</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24" si="7">R23*$F$13</f>
+        <v>-0.65219487449439273</v>
+      </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24" si="8">T23*$F$13</f>
+        <v>-0.93339551765221707</v>
+      </c>
+      <c r="U24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24" si="9">X23*$F$13</f>
+        <v>-1.0429589262906989</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ref="Z24" si="10">Z23*$F$13</f>
+        <v>-0.25274482857051273</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24" si="11">AB23*$F$13</f>
+        <v>-0.39014901662238516</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="1">
+        <f>1/N7</f>
+        <v>4.4656672801004955</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="1">
+        <f>1/O7</f>
+        <v>4.2334833820960061</v>
+      </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" s="1">
+        <f>1/P7</f>
+        <v>6.3305964054873609</v>
+      </c>
+      <c r="U25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="1">
+        <f>1/R7</f>
         <v>7.0606310509608115</v>
       </c>
-      <c r="U17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="1">
-        <f>1/O5</f>
-        <v>1.7141988288936441</v>
-      </c>
-      <c r="W17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="1">
-        <f>1/P5</f>
-        <v>2.6461193733248409</v>
-      </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>1/S7</f>
+        <v>1.5230575685299754</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>1/T7</f>
+        <v>2.3775530461804015</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="8:25" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" ref="L18" si="12">L17*$D$13</f>
+    <row r="26" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" ref="P26:P30" si="12">P25*$F$13</f>
         <v>-0.65842671931493613</v>
       </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" ref="N18" si="13">N17*$D$13</f>
+      <c r="Q26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" ref="R26:R30" si="13">R25*$F$13</f>
         <v>-0.62419307120548506</v>
       </c>
-      <c r="O18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" ref="P18" si="14">P17*$D$13</f>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26:T30" si="14">T25*$F$13</f>
         <v>-0.93339551765221707</v>
       </c>
-      <c r="Q18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" ref="T18" si="15">T17*$D$13</f>
+      <c r="U26" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" ref="X26:X30" si="15">X25*$F$13</f>
         <v>-1.0410332538416693</v>
       </c>
-      <c r="U18" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" ref="V18" si="16">V17*$D$13</f>
-        <v>-0.25274482857051273</v>
-      </c>
-      <c r="W18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="1">
-        <f t="shared" ref="X18" si="17">X17*$D$13</f>
-        <v>-0.39014901662238516</v>
-      </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ref="Z26:Z30" si="16">Z25*$F$13</f>
+        <v>-0.22456258724058092</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" ref="AB26:AB30" si="17">AB25*$F$13</f>
+        <v>-0.35055107199087293</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3">
+        <f>1/N8</f>
+        <v>4.1211825486052271</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="3">
+        <f>1/O8</f>
+        <v>4.0930112242646803</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="3">
+        <f>1/P8</f>
+        <v>5.5815158057364584</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="3">
+        <f>1/R8</f>
+        <v>6.2506563189134861</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="3">
+        <f>1/S8</f>
+        <v>2.320179154953629</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>1/T8</f>
+        <v>2.7140069082331846</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.6076352166377792</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.60348158146953501</v>
+      </c>
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.82294960870726042</v>
+      </c>
+      <c r="U28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.92160899491257309</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="16"/>
+        <v>-0.3420917532361793</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.4001584875678052</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="3">
+        <f>1/N9</f>
+        <v>4.0128491429557442</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="3">
+        <f>1/O9</f>
+        <v>4.0455611092119446</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="3">
+        <f>1/P9</f>
+        <v>4.9419616029351303</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="3">
+        <f>1/R9</f>
+        <v>2.6981435692985798</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="3">
+        <f>1/S9</f>
+        <v>0.94067182781942871</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="3">
+        <f>1/T9</f>
+        <v>1.6758360033590456</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="12:29" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.5916623273918975</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.59648544368638468</v>
+      </c>
+      <c r="S30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.72865248597914678</v>
+      </c>
+      <c r="U30" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.39781956584413891</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="16"/>
+        <v>-0.13869449439349918</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.24708853853006249</v>
+      </c>
+      <c r="AC30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y7" r:id="rId1"/>
-    <hyperlink ref="Y8" r:id="rId2"/>
-    <hyperlink ref="Y9" r:id="rId3"/>
-    <hyperlink ref="Y11" r:id="rId4"/>
-    <hyperlink ref="Y10" r:id="rId5"/>
-    <hyperlink ref="Y13" r:id="rId6"/>
-    <hyperlink ref="Y12" r:id="rId7"/>
-    <hyperlink ref="Y15" r:id="rId8"/>
-    <hyperlink ref="Y14" r:id="rId9"/>
-    <hyperlink ref="Y16" r:id="rId10"/>
-    <hyperlink ref="Y17" r:id="rId11"/>
-    <hyperlink ref="Y18" r:id="rId12"/>
+    <hyperlink ref="AC11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AC12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AC13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AC15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AC14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AC17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AC16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AC23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AC22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AC24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AC25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AC26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AC18:AC21" r:id="rId13" display="\\" xr:uid="{BEF90B3C-AC9D-42CB-9908-1773FE8EA19A}"/>
+    <hyperlink ref="AC27:AC30" r:id="rId14" display="\\" xr:uid="{9B863BAC-93C8-46A9-848C-7B23B36EB151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
